--- a/biology/Botanique/Lignée_rouge/Lignée_rouge.xlsx
+++ b/biology/Botanique/Lignée_rouge/Lignée_rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lign%C3%A9e_rouge</t>
+          <t>Lignée_rouge</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Lignée brune, lignée brun-rouge
-La lignée rouge, lignée brune[a] ou lignée brun-rouge est l'ensemble des algues possédant un plaste rouge ou brun issu d'une endosymbiose, primaire (Rhodophytes) ou secondaire, avec une algue rouge (toutes les algues à plaste brun)[1],[2],[3]. 
+La lignée rouge, lignée brune[a] ou lignée brun-rouge est l'ensemble des algues possédant un plaste rouge ou brun issu d'une endosymbiose, primaire (Rhodophytes) ou secondaire, avec une algue rouge (toutes les algues à plaste brun). 
 Du point de vue de la phylogénie des hôtes de l'endosymbiose, c'est un groupe polyphylétique. 
 Du point de vue de la phylogénie des endosymbiotes (plastes), c'est un groupe monophylétique. 
 </t>
